--- a/zpi-backend/src/test/resources/poprawny_plik_pracownicy.xlsx
+++ b/zpi-backend/src/test/resources/poprawny_plik_pracownicy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zpi-student-project-management\zpi-backend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DC550F-A02F-4E34-9825-42A3D679B116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB4DC5B-C507-4408-863D-6079504DAD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{0D141775-F52B-4CFE-9CEF-DBC76E6B4B4D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0D141775-F52B-4CFE-9CEF-DBC76E6B4B4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -4056,8 +4056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D31888-4087-4ACA-978D-8CA8E59D20DE}">
   <dimension ref="A1:I375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
